--- a/biology/Botanique/Liste_des_musées_de_la_pomme_de_terre/Liste_des_musées_de_la_pomme_de_terre.xlsx
+++ b/biology/Botanique/Liste_des_musées_de_la_pomme_de_terre/Liste_des_musées_de_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_mus%C3%A9es_de_la_pomme_de_terre</t>
+          <t>Liste_des_musées_de_la_pomme_de_terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,26 +490,28 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Cette page liste les musées de la pomme de terre dans le monde.
 Allemagne :
 Deutsches Kartoffelmuseum à Fußgönheim (Rhénanie-Palatinat) ;
-Das Kartoffel-Museum (Le musée de la pomme de terre) à Munich (Bavière)[1] ;
+Das Kartoffel-Museum (Le musée de la pomme de terre) à Munich (Bavière) ;
 Vorpommersches Kartoffelmuseum à Tribsees (Mecklembourg-Poméranie-Occidentale).
 Belgique :
 Musée vivant de la pomme de terre à Genappe (Brabant wallon).
-Musée de la frite à Bruges (Flandre-Occidentale)[2].
+Musée de la frite à Bruges (Flandre-Occidentale).
 Home Frit home à Bruxelles.
 Canada :
-Musée de la pomme de terre de  l’Île-du-Prince-Édouard à O'Leary, Île-du-Prince-Édouard[3].
+Musée de la pomme de terre de  l’Île-du-Prince-Édouard à O'Leary, Île-du-Prince-Édouard.
 Danemark :
-Danmarks kartoffelmuseum (Musée de la pomme de terre du Danemark) à Otterup (Fionie)[4].
+Danmarks kartoffelmuseum (Musée de la pomme de terre du Danemark) à Otterup (Fionie).
 Italie :
-Museo della patata (Musée de la pomme de terre) à Budrio (Émilie-Romagne)[5].
+Museo della patata (Musée de la pomme de terre) à Budrio (Émilie-Romagne).
 États-Unis :
 Potato Museum à Albuquerque dans le Nouveau-Mexique ;
-Idaho Potato Museum à Blackfoot (Idaho)[6].
+Idaho Potato Museum à Blackfoot (Idaho).
 France :
 Moulin Gentrey à Harsault dans le département des Vosges.</t>
         </is>
